--- a/SDL_AndroDunos/AndroDunos_TimeTable.xlsx
+++ b/SDL_AndroDunos/AndroDunos_TimeTable.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lluismf3\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$F$40</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>TASKS</t>
   </si>
@@ -107,9 +102,6 @@
     <t>Fix Player 1 Animation</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>Stage Clear Score</t>
   </si>
   <si>
@@ -134,9 +126,6 @@
     <t>Sprites</t>
   </si>
   <si>
-    <t>Fix Ground</t>
-  </si>
-  <si>
     <t>Fix FadeToBlack</t>
   </si>
   <si>
@@ -162,12 +151,39 @@
   </si>
   <si>
     <t>God mode</t>
+  </si>
+  <si>
+    <t>Laser 3</t>
+  </si>
+  <si>
+    <t>Laser 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Player 1 Animation</t>
+  </si>
+  <si>
+    <t>Player 2 Collision</t>
+  </si>
+  <si>
+    <t>Particles fx</t>
+  </si>
+  <si>
+    <t>Fix resets</t>
+  </si>
+  <si>
+    <t>Insert coin</t>
+  </si>
+  <si>
+    <t>Unstoppable intro loop</t>
+  </si>
+  <si>
+    <t>Fix NeoGeo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
@@ -408,7 +424,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -484,9 +500,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -562,7 +575,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -597,7 +610,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -774,7 +787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -782,13 +795,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K36"/>
+  <dimension ref="B1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,10 +826,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>1</v>
@@ -878,7 +891,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>13</v>
@@ -973,7 +986,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>13</v>
@@ -1020,7 +1033,7 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>20</v>
@@ -1072,9 +1085,7 @@
       <c r="C16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>26</v>
-      </c>
+      <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="19">
         <v>43203</v>
@@ -1087,11 +1098,11 @@
       <c r="C17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>26</v>
+      <c r="D17" s="22">
+        <v>0.16666666666666666</v>
       </c>
       <c r="E17" s="23">
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="F17" s="19">
         <v>43199</v>
@@ -1104,9 +1115,7 @@
       <c r="C18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>26</v>
-      </c>
+      <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="19">
         <v>43206</v>
@@ -1127,7 +1136,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>11</v>
@@ -1149,8 +1158,8 @@
       <c r="C21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>26</v>
+      <c r="D21" s="22">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E21" s="20">
         <v>8.3333333333333329E-2</v>
@@ -1161,7 +1170,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>20</v>
@@ -1178,7 +1187,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>20</v>
@@ -1195,79 +1204,91 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="D24" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E24" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F24" s="19">
-        <v>43206</v>
+        <v>43208</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D25" s="24">
-        <v>8.3333333333333329E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E25" s="24">
-        <v>0.125</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="F25" s="19">
-        <v>43206</v>
+        <v>43208</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="D26" s="24">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E26" s="24">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F26" s="19">
-        <v>43210</v>
+        <v>43208</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="24">
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E27" s="24">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F27" s="29">
-        <v>43206</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F27" s="19">
+        <v>43208</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0.125</v>
+      </c>
       <c r="F28" s="19">
         <v>43206</v>
       </c>
-      <c r="G28" s="28">
-        <f>SUM(D3:D35)</f>
-        <v>2.0659722222222219</v>
+      <c r="G28" s="27">
+        <f>SUM(D3:D39)</f>
+        <v>2.3576388888888884</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -1277,113 +1298,210 @@
       <c r="C29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="19">
-        <v>43182</v>
+        <v>43210</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="24">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E30" s="24">
+        <v>3.125E-2</v>
+      </c>
       <c r="F30" s="19">
-        <v>43196</v>
-      </c>
-      <c r="G30" s="28">
-        <f>SUM(E3:E35)</f>
-        <v>3.1875</v>
+        <v>43208</v>
+      </c>
+      <c r="G30" s="27">
+        <f>SUM(E3:E39)</f>
+        <v>3.1250000000000004</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="20">
+        <v>42</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E31" s="24">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E31" s="20">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F31" s="19">
-        <v>43196</v>
+      <c r="F31" s="28">
+        <v>43206</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="19">
-        <v>43203</v>
+        <v>43206</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="19">
-        <v>43203</v>
+        <v>43182</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="E34" s="23">
-        <v>0.625</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="19">
-        <v>43203</v>
+        <v>43196</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D35" s="20">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E35" s="20">
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F35" s="19">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="19">
         <v>43203</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="F36" s="27"/>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="19">
+        <v>43203</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="E38" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="F38" s="19">
+        <v>43203</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="19">
+        <v>43208</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="19">
+        <v>43208</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="19">
+        <v>43208</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="19">
+        <v>43208</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="16"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F36"/>
+  <autoFilter ref="B2:F40"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
